--- a/quanlysinhvien/danhsachchuyennganh/lopchuyennganh/dsLopCN.xlsx
+++ b/quanlysinhvien/danhsachchuyennganh/lopchuyennganh/dsLopCN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
   <si>
     <t>Mã lớp</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Viện công nghệ thông tin và truyền thông</t>
+  </si>
+  <si>
+    <t>Tran Quoc Tuan</t>
   </si>
 </sst>
 </file>
@@ -183,13 +186,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
